--- a/biology/Botanique/Miscanthus_de_Chine/Miscanthus_de_Chine.xlsx
+++ b/biology/Botanique/Miscanthus_de_Chine/Miscanthus_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miscanthus sinensis est une espèce de plantes monocotylédones de la famille des Poaceae (Graminées), sous-famille des Panicoideae, originaire d'Asie orientale .
 Elle est parfois nommée « herbe à éléphant » (abusivement), « graminée géante », « eulalie » ou « roseau de Chine ».
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante herbacée atteignant les 4 mètres dans une région approprié. Ses feuilles ont la particularité d'avoir les bords en "dents de scie", cette plante est donc très tranchante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante herbacée atteignant les 4 mètres dans une région approprié. Ses feuilles ont la particularité d'avoir les bords en "dents de scie", cette plante est donc très tranchante.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire d'Asie : Chine, Japon, Corée, Indonésie et Philippines.
 Miscanthus sinensis est également reconnue comme espèce de plante envahissante.
@@ -576,7 +592,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante ornementale : de nombreux cultivars ont été sélectionnées, notamment pour leur feuillage panaché.
 C'est l'un des parents de l'hybride Miscanthus ×giganteus, le « miscanthus géant ». Ce dernier a été créé avec l'objectif de produire des cultures de biomasse lignocellulosique en quantité industrielle avec pour vocation de produire des agrocarburants ou un combustible renouvelable.
@@ -611,10 +629,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au Japon
-Au Japon, l'herbe Miscanthus sinensis est appelée couramment susuki, ou herbe-plume nippone; elle y est très populaire pour ses ondoiements dans le vent et sa couleur argentée.
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, l'herbe Miscanthus sinensis est appelée couramment susuki, ou herbe-plume nippone; elle y est très populaire pour ses ondoiements dans le vent et sa couleur argentée.
 Dans le jeu de cartes traditionnel japonais Hanafuda, des champs de Miscanthus sinensis (susuki) sont représentés sur la série des quatre cartes du mois d'août.
-Cinq à dix roseaux sont utilisés pour la décoration lors d’o-tsukimi, la version japonaise de la fête de la mi-automne[2].
+Cinq à dix roseaux sont utilisés pour la décoration lors d’o-tsukimi, la version japonaise de la fête de la mi-automne.
 Dans la Ballade de l'impossible de Haruki Murakami, une scène apparaît durant laquelle Naoko fait tourner entre ses doigts un épi de susuki.
 </t>
         </is>
@@ -644,11 +667,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eulalia japonica Trin.
 Saccharum japonicum Thunb.
-Parmi ses noms vernaculaires, on trouve « herbe à éléphant », « graminée géante », « eulalie » ou « roseau de Chine »[3].
+Parmi ses noms vernaculaires, on trouve « herbe à éléphant », « graminée géante », « eulalie » ou « roseau de Chine ».
 </t>
         </is>
       </c>
@@ -677,9 +702,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome de cette plante a été séquencé et publié en déc. 2017 ; mis à disposition sur le site internet de Phytozome [4] ; il comprend environ 2Gb sequence en 19 chromosomes (67789 loci correspondant à 89486 transcripts)[5]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome de cette plante a été séquencé et publié en déc. 2017 ; mis à disposition sur le site internet de Phytozome  ; il comprend environ 2Gb sequence en 19 chromosomes (67789 loci correspondant à 89486 transcripts)
 </t>
         </is>
       </c>
@@ -708,9 +735,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (7 octobre 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (7 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Miscanthus sinensis subsp. condensatus (Hack.) T. Koyama
 sous-espèce Miscanthus sinensis subsp. purpurascens (Andersson) Tzvelev
 sous-espèce Miscanthus sinensis subsp. sinensis
